--- a/case3_Borate/Excel_Files/_HCL_UBK_530.xlsx
+++ b/case3_Borate/Excel_Files/_HCL_UBK_530.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Downloads\BO_Papers\MEng_Code\case3_Borate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Downloads\BO_Papers\MEng_Code\case3_Borate\Excel_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EE01D9-D105-4470-9431-20799B638B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267D5331-1C97-4D84-AE38-9B82206DAB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -302,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -389,11 +389,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -416,6 +427,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2104,8 +2116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2191,7 +2203,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -2229,9 +2241,8 @@
         <f>I2/J2</f>
         <v>0.2</v>
       </c>
-      <c r="L2" s="10">
-        <f>9.726/1000</f>
-        <v>9.7260000000000003E-3</v>
+      <c r="L2" s="16">
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="M2" s="9">
         <v>24</v>
@@ -2261,7 +2272,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2287,7 +2298,10 @@
         <f>F4*(1/1000)</f>
         <v>7.3380000000000006E-5</v>
       </c>
-      <c r="L3" s="5"/>
+      <c r="L3" s="10">
+        <f>9.726/1000</f>
+        <v>9.7260000000000003E-3</v>
+      </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>

--- a/case3_Borate/Excel_Files/_HCL_UBK_530.xlsx
+++ b/case3_Borate/Excel_Files/_HCL_UBK_530.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Downloads\BO_Papers\MEng_Code\case3_Borate\Excel_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267D5331-1C97-4D84-AE38-9B82206DAB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AF0E8F-C1F0-456A-8AD2-99339B9C45F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3696" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glucose" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -389,22 +389,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -427,7 +416,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2116,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2129,8 +2117,7 @@
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
@@ -2203,7 +2190,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -2241,8 +2228,9 @@
         <f>I2/J2</f>
         <v>0.2</v>
       </c>
-      <c r="L2" s="16">
-        <v>1.7999999999999999E-2</v>
+      <c r="L2" s="10">
+        <f>(9.726/1000)*1.3</f>
+        <v>1.26438E-2</v>
       </c>
       <c r="M2" s="9">
         <v>24</v>
@@ -2251,7 +2239,7 @@
         <v>2</v>
       </c>
       <c r="O2" s="11">
-        <v>0.4</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="P2" s="1">
         <v>60</v>
@@ -2272,7 +2260,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2297,10 +2285,6 @@
       <c r="G3" s="1">
         <f>F4*(1/1000)</f>
         <v>7.3380000000000006E-5</v>
-      </c>
-      <c r="L3" s="10">
-        <f>9.726/1000</f>
-        <v>9.7260000000000003E-3</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -3338,6 +3322,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010048117A934AEAC441AF47E945F1AED0C0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7272456f5b53c8ae1c345851aef95d27">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c39f1452-4462-4979-941b-c1317cfd14ce" xmlns:ns3="60199b31-2299-4531-8872-a3eaba744cbd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16ed4d68a838bfbb08a7468a1792fb8f" ns2:_="" ns3:_="">
     <xsd:import namespace="c39f1452-4462-4979-941b-c1317cfd14ce"/>
@@ -3594,16 +3587,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21AAFDFA-AF70-4552-A086-9BCC58150335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF42137A-B7F2-4A60-BAD9-4B8683F12BBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3620,12 +3612,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21AAFDFA-AF70-4552-A086-9BCC58150335}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>